--- a/Cipher-info-text1.xlsx
+++ b/Cipher-info-text1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sofia\OneDrive\Documentos\Signals Project\Fourier-Music\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D43BA67-1330-4999-959F-ACAB4B1AC7D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887A44B7-ED6E-4B70-A26E-B4C522AD4EB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{74A28A22-8E90-4768-982A-5D0B822BFC45}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{74A28A22-8E90-4768-982A-5D0B822BFC45}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="101">
   <si>
     <t>Enelpasa</t>
   </si>
@@ -207,18 +207,12 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>B4-C5</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
     <t>G4</t>
   </si>
   <si>
-    <t>E4-F4</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -228,27 +222,15 @@
     <t>G3</t>
   </si>
   <si>
-    <t>B3-C4</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
-    <t>E3-F3</t>
-  </si>
-  <si>
-    <t>B2-C3</t>
-  </si>
-  <si>
     <t>A2</t>
   </si>
   <si>
     <t>Key</t>
   </si>
   <si>
-    <t>B5-C6</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
@@ -261,64 +243,103 @@
     <t>C5</t>
   </si>
   <si>
-    <t>E5-F5</t>
-  </si>
-  <si>
     <t>D6</t>
   </si>
   <si>
-    <t>E6-F6</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>B2</t>
-  </si>
-  <si>
     <t>C3</t>
   </si>
   <si>
     <t>E3</t>
   </si>
   <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
     <t>C4</t>
   </si>
   <si>
     <t>E4</t>
   </si>
   <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
     <t>E5</t>
   </si>
   <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F6</t>
-  </si>
-  <si>
     <t>E6</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -348,7 +369,7 @@
       <family val="3"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -373,8 +394,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -434,37 +461,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -477,10 +478,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -493,7 +493,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -828,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C2721F0-11DB-4859-9FC5-9CF827D7DCAB}">
   <dimension ref="B1:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="AI28" sqref="AI28"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="AD21" sqref="AD21:AD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -840,41 +840,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.3">
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="12"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="11"/>
       <c r="T1" s="5"/>
-      <c r="U1" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13"/>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13"/>
-      <c r="Z1" s="13"/>
-      <c r="AA1" s="13"/>
-      <c r="AB1" s="13"/>
-      <c r="AD1" s="13" t="s">
+      <c r="U1" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12"/>
+      <c r="Z1" s="12"/>
+      <c r="AA1" s="12"/>
+      <c r="AB1" s="12"/>
+      <c r="AD1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="AE1" s="13"/>
+      <c r="AE1" s="12"/>
     </row>
     <row r="2" spans="2:35" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
@@ -926,11 +926,11 @@
       </c>
       <c r="U2" s="1" t="str">
         <f t="shared" ref="U2:U28" si="0">VLOOKUP(C2,$AD$2:$AF$27,3,FALSE)</f>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V2" s="1" t="str">
         <f t="shared" ref="V2:V28" si="1">VLOOKUP(E2,$AD$2:$AF$27,3,FALSE)</f>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="W2" s="1" t="str">
         <f t="shared" ref="W2:W28" si="2">VLOOKUP(G2,$AD$2:$AF$27,3,FALSE)</f>
@@ -942,7 +942,7 @@
       </c>
       <c r="Y2" s="1" t="str">
         <f t="shared" ref="Y2:Y28" si="4">VLOOKUP(K2,$AD$2:$AF$27,3,FALSE)</f>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Z2" s="1" t="str">
         <f t="shared" ref="Z2:Z8" si="5">VLOOKUP(M2,$AD$2:$AF$27,3,FALSE)</f>
@@ -957,17 +957,17 @@
         <v/>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="AE2" s="1">
         <f>COUNTIF($C$2:$R$28,AD2)</f>
-        <v>18</v>
-      </c>
-      <c r="AF2" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>78</v>
+        <v>22</v>
+      </c>
+      <c r="AF2" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI2" s="8" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.3">
@@ -1024,7 +1024,7 @@
       </c>
       <c r="V3" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="W3" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="X3" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y3" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1051,14 +1051,17 @@
         <v/>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="AE3" s="1">
         <f>COUNTIF($C$2:$R$28,AD3)</f>
-        <v>0</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI3" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.3">
@@ -1123,7 +1126,7 @@
       </c>
       <c r="V4" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="W4" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1135,7 +1138,7 @@
       </c>
       <c r="Y4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="Z4" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1143,27 +1146,27 @@
       </c>
       <c r="AA4" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="AB4" s="1" t="str">
         <f t="shared" si="7"/>
         <v>G5</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="AE4" s="1">
-        <f t="shared" ref="AE4:AE27" si="9">COUNTIF($C$2:$R$28,AD4)</f>
-        <v>9</v>
-      </c>
-      <c r="AF4" s="8" t="s">
-        <v>70</v>
+        <f>COUNTIF($C$2:$R$28,AD4)</f>
+        <v>13</v>
+      </c>
+      <c r="AF4" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="AG4">
         <v>880</v>
       </c>
-      <c r="AI4" t="s">
-        <v>93</v>
+      <c r="AI4" s="8" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="2:35" x14ac:dyDescent="0.3">
@@ -1220,7 +1223,7 @@
       </c>
       <c r="U5" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V5" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1232,7 +1235,7 @@
       </c>
       <c r="X5" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="Y5" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1240,28 +1243,28 @@
       </c>
       <c r="Z5" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="AA5" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="AB5" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="AE5" s="1">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($C$2:$R$28,AD5)</f>
         <v>13</v>
       </c>
-      <c r="AF5" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="AI5" s="14" t="s">
-        <v>75</v>
+      <c r="AF5" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.3">
@@ -1318,7 +1321,7 @@
       </c>
       <c r="U6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V6" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1330,7 +1333,7 @@
       </c>
       <c r="X6" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y6" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1338,7 +1341,7 @@
       </c>
       <c r="Z6" s="1" t="str">
         <f t="shared" si="5"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="AA6" s="1" t="str">
         <f t="shared" si="6"/>
@@ -1349,20 +1352,20 @@
         <v/>
       </c>
       <c r="AD6" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="AE6" s="1">
-        <f t="shared" si="9"/>
-        <v>22</v>
-      </c>
-      <c r="AF6" s="8" t="s">
+        <f>COUNTIF($C$2:$R$28,AD6)</f>
+        <v>13</v>
+      </c>
+      <c r="AF6" s="6" t="s">
         <v>74</v>
       </c>
       <c r="AG6">
         <v>659</v>
       </c>
-      <c r="AI6" s="14" t="s">
-        <v>91</v>
+      <c r="AI6" s="8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.3">
@@ -1419,7 +1422,7 @@
       </c>
       <c r="V7" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W7" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1427,7 +1430,7 @@
       </c>
       <c r="X7" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y7" s="1" t="str">
         <f t="shared" si="4"/>
@@ -1446,17 +1449,17 @@
         <v/>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE7" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AF7" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI7" s="9" t="s">
-        <v>70</v>
+        <f>COUNTIF($C$2:$R$28,AD7)</f>
+        <v>13</v>
+      </c>
+      <c r="AF7" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI7" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="2:35" x14ac:dyDescent="0.3">
@@ -1517,7 +1520,7 @@
       </c>
       <c r="V8" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W8" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1529,7 +1532,7 @@
       </c>
       <c r="Y8" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="Z8" s="1" t="str">
         <f t="shared" si="5"/>
@@ -1544,17 +1547,17 @@
         <v/>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="AE8" s="1">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="AF8" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="AI8" s="14" t="s">
-        <v>71</v>
+        <f>COUNTIF($C$2:$R$28,AD8)</f>
+        <v>13</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI8" s="8" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="2:35" x14ac:dyDescent="0.3">
@@ -1603,11 +1606,11 @@
       </c>
       <c r="U9" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="V9" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="W9" s="1" t="str">
         <f t="shared" si="2"/>
@@ -1634,17 +1637,17 @@
         <v/>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="AE9" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AF9" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI9" s="14" t="s">
-        <v>88</v>
+        <f>COUNTIF($C$2:$R$28,AD9)</f>
+        <v>13</v>
+      </c>
+      <c r="AF9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="AI9" s="8" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.3">
@@ -1701,27 +1704,27 @@
       </c>
       <c r="U10" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="V10" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W10" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="X10" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y10" s="1" t="str">
         <f t="shared" si="4"/>
         <v>D3</v>
       </c>
       <c r="Z10" s="1" t="str">
-        <f t="shared" ref="Z10:Z28" si="10">VLOOKUP(M10,$AD$2:$AF$27,3,FALSE)</f>
-        <v>B2-C3</v>
+        <f t="shared" ref="Z10:Z28" si="9">VLOOKUP(M10,$AD$2:$AF$27,3,FALSE)</f>
+        <v>C3</v>
       </c>
       <c r="AA10" s="1" t="str">
         <f t="shared" si="6"/>
@@ -1732,17 +1735,17 @@
         <v/>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="AE10" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF10" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AI10" s="14" t="s">
-        <v>72</v>
+        <f>COUNTIF($C$2:$R$28,AD10)</f>
+        <v>11</v>
+      </c>
+      <c r="AF10" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI10" s="8" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.3">
@@ -1799,7 +1802,7 @@
       </c>
       <c r="U11" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V11" s="1" t="str">
         <f t="shared" si="1"/>
@@ -1807,40 +1810,40 @@
       </c>
       <c r="W11" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="X11" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="Y11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="Z11" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B5-C6</v>
+        <f t="shared" si="9"/>
+        <v>C6</v>
       </c>
       <c r="AA11" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="AB11" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="AE11" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AF11" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI11" s="9" t="s">
-        <v>73</v>
+        <f>COUNTIF($C$2:$R$28,AD11)</f>
+        <v>9</v>
+      </c>
+      <c r="AF11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI11" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.3">
@@ -1905,22 +1908,22 @@
       </c>
       <c r="V12" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W12" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="X12" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="Y12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Z12" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A3</v>
       </c>
       <c r="AA12" s="1" t="str">
@@ -1929,17 +1932,20 @@
       </c>
       <c r="AB12" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE12" s="1">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AI12" s="9" t="s">
-        <v>57</v>
+        <f>COUNTIF($C$2:$R$28,AD12)</f>
+        <v>9</v>
+      </c>
+      <c r="AF12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="2:35" x14ac:dyDescent="0.3">
@@ -2000,7 +2006,7 @@
       </c>
       <c r="U13" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="V13" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2008,7 +2014,7 @@
       </c>
       <c r="W13" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="X13" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2016,10 +2022,10 @@
       </c>
       <c r="Y13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="Z13" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>D6</v>
       </c>
       <c r="AA13" s="1" t="str">
@@ -2028,23 +2034,23 @@
       </c>
       <c r="AB13" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="AE13" s="1">
-        <f t="shared" si="9"/>
-        <v>11</v>
-      </c>
-      <c r="AF13" s="8" t="s">
+        <f>COUNTIF($C$2:$R$28,AD13)</f>
+        <v>8</v>
+      </c>
+      <c r="AF13" s="6" t="s">
         <v>61</v>
       </c>
       <c r="AG13">
         <v>220</v>
       </c>
-      <c r="AI13" s="9" t="s">
-        <v>58</v>
+      <c r="AI13" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.3">
@@ -2101,11 +2107,11 @@
       </c>
       <c r="U14" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V14" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="W14" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2113,36 +2119,36 @@
       </c>
       <c r="X14" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y14" s="1" t="str">
         <f t="shared" si="4"/>
         <v>G5</v>
       </c>
       <c r="Z14" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A3</v>
       </c>
       <c r="AA14" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="AB14" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD14" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="AE14" s="1">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AF14" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AI14" s="9" t="s">
-        <v>85</v>
+        <f>COUNTIF($C$2:$R$28,AD14)</f>
+        <v>8</v>
+      </c>
+      <c r="AF14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI14" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="2:35" x14ac:dyDescent="0.3">
@@ -2199,23 +2205,23 @@
       </c>
       <c r="V15" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="W15" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="X15" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="Y15" s="1" t="str">
         <f t="shared" si="4"/>
         <v>A6</v>
       </c>
       <c r="Z15" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B3-C4</v>
+        <f t="shared" si="9"/>
+        <v>C4</v>
       </c>
       <c r="AA15" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2226,17 +2232,17 @@
         <v/>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="AE15" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF15" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI15" s="9" t="s">
+        <f>COUNTIF($C$2:$R$28,AD15)</f>
+        <v>5</v>
+      </c>
+      <c r="AF15" s="6" t="s">
         <v>60</v>
+      </c>
+      <c r="AI15" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.3">
@@ -2293,7 +2299,7 @@
       </c>
       <c r="V16" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W16" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2301,15 +2307,15 @@
       </c>
       <c r="X16" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="Y16" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="Z16" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E4-F4</v>
+        <f t="shared" si="9"/>
+        <v>E4</v>
       </c>
       <c r="AA16" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2320,20 +2326,20 @@
         <v/>
       </c>
       <c r="AD16" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AE16" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF16" s="8" t="s">
-        <v>63</v>
+        <f>COUNTIF($C$2:$R$28,AD16)</f>
+        <v>4</v>
+      </c>
+      <c r="AF16" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="AG16">
         <v>261</v>
       </c>
-      <c r="AI16" s="9" t="s">
-        <v>84</v>
+      <c r="AI16" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="2:35" x14ac:dyDescent="0.3">
@@ -2386,11 +2392,11 @@
       </c>
       <c r="U17" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V17" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="W17" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2398,15 +2404,15 @@
       </c>
       <c r="X17" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="Y17" s="1" t="str">
         <f t="shared" si="4"/>
         <v>G5</v>
       </c>
       <c r="Z17" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E4-F4</v>
+        <f t="shared" si="9"/>
+        <v>E4</v>
       </c>
       <c r="AA17" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2417,17 +2423,17 @@
         <v/>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="AE17" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AF17" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI17" s="9" t="s">
-        <v>61</v>
+        <f>COUNTIF($C$2:$R$28,AD17)</f>
+        <v>3</v>
+      </c>
+      <c r="AF17" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI17" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.3">
@@ -2484,7 +2490,7 @@
       </c>
       <c r="U18" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="V18" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2492,40 +2498,40 @@
       </c>
       <c r="W18" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="X18" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Y18" s="1" t="str">
         <f t="shared" si="4"/>
         <v>A3</v>
       </c>
       <c r="Z18" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A2</v>
       </c>
       <c r="AA18" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="AB18" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="AE18" s="1">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="AF18" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI18" s="9" t="s">
-        <v>62</v>
+        <f>COUNTIF($C$2:$R$28,AD18)</f>
+        <v>3</v>
+      </c>
+      <c r="AF18" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI18" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.3">
@@ -2578,15 +2584,15 @@
       </c>
       <c r="U19" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="V19" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="W19" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="X19" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2594,10 +2600,10 @@
       </c>
       <c r="Y19" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="Z19" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>G5</v>
       </c>
       <c r="AA19" s="1" t="str">
@@ -2609,17 +2615,17 @@
         <v/>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="AE19" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF19" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI19" s="9" t="s">
-        <v>81</v>
+        <f>COUNTIF($C$2:$R$28,AD19)</f>
+        <v>2</v>
+      </c>
+      <c r="AF19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI19" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.3">
@@ -2684,23 +2690,23 @@
       </c>
       <c r="V20" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="W20" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="X20" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E6-F6</v>
+        <v>E6</v>
       </c>
       <c r="Y20" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="Z20" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E3-F3</v>
+        <f t="shared" si="9"/>
+        <v>E3</v>
       </c>
       <c r="AA20" s="1" t="str">
         <f t="shared" si="6"/>
@@ -2708,20 +2714,20 @@
       </c>
       <c r="AB20" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="AE20" s="1">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AF20" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="AI20" s="9" t="s">
-        <v>64</v>
+        <f>COUNTIF($C$2:$R$28,AD20)</f>
+        <v>1</v>
+      </c>
+      <c r="AF20" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AI20" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="2:35" x14ac:dyDescent="0.3">
@@ -2774,7 +2780,7 @@
       </c>
       <c r="U21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="V21" s="1" t="str">
         <f t="shared" si="1"/>
@@ -2782,18 +2788,18 @@
       </c>
       <c r="W21" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="X21" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="Y21" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="Z21" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A4</v>
       </c>
       <c r="AA21" s="1" t="str">
@@ -2805,20 +2811,23 @@
         <v/>
       </c>
       <c r="AD21" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AE21" s="1">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AF21" s="8" t="s">
-        <v>77</v>
+        <f>COUNTIF($C$2:$R$28,AD21)</f>
+        <v>1</v>
+      </c>
+      <c r="AF21" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="AG21">
         <v>1568</v>
       </c>
-      <c r="AI21" s="9" t="s">
-        <v>80</v>
+      <c r="AH21" t="s">
+        <v>78</v>
+      </c>
+      <c r="AI21" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:35" x14ac:dyDescent="0.3">
@@ -2871,15 +2880,15 @@
       </c>
       <c r="U22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="V22" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="W22" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="X22" s="1" t="str">
         <f t="shared" si="3"/>
@@ -2887,10 +2896,10 @@
       </c>
       <c r="Y22" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="Z22" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A6</v>
       </c>
       <c r="AA22" s="1" t="str">
@@ -2902,20 +2911,20 @@
         <v/>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="AE22" s="1">
-        <f t="shared" si="9"/>
-        <v>13</v>
-      </c>
-      <c r="AF22" s="8" t="s">
-        <v>66</v>
+        <f>COUNTIF($C$2:$R$28,AD22)</f>
+        <v>1</v>
+      </c>
+      <c r="AF22" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="AG22">
         <v>130</v>
       </c>
-      <c r="AI22" s="14" t="s">
-        <v>67</v>
+      <c r="AI22" s="8" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="2:35" x14ac:dyDescent="0.3">
@@ -2980,7 +2989,7 @@
       </c>
       <c r="V23" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="W23" s="1" t="str">
         <f t="shared" si="2"/>
@@ -2988,33 +2997,30 @@
       </c>
       <c r="X23" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="Y23" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="Z23" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B3-C4</v>
+        <f t="shared" si="9"/>
+        <v>C4</v>
       </c>
       <c r="AA23" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="AB23" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="AE23" s="1">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="AF23" s="8" t="s">
-        <v>76</v>
+        <f>COUNTIF($C$2:$R$28,AD23)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.3">
@@ -3071,23 +3077,23 @@
       </c>
       <c r="V24" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="W24" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="X24" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E4-F4</v>
+        <v>E4</v>
       </c>
       <c r="Y24" s="1" t="str">
         <f t="shared" si="4"/>
         <v>G6</v>
       </c>
       <c r="Z24" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>B4-C5</v>
+        <f t="shared" si="9"/>
+        <v>C5</v>
       </c>
       <c r="AA24" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3098,10 +3104,10 @@
         <v/>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AE24" s="1">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($C$2:$R$28,AD24)</f>
         <v>0</v>
       </c>
     </row>
@@ -3167,7 +3173,7 @@
       </c>
       <c r="W25" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="X25" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3175,11 +3181,11 @@
       </c>
       <c r="Y25" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="Z25" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E5-F5</v>
+        <f t="shared" si="9"/>
+        <v>E5</v>
       </c>
       <c r="AA25" s="1" t="str">
         <f t="shared" si="6"/>
@@ -3190,10 +3196,10 @@
         <v/>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE25" s="1">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($C$2:$R$28,AD25)</f>
         <v>0</v>
       </c>
     </row>
@@ -3255,41 +3261,38 @@
       </c>
       <c r="V26" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="W26" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="X26" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>E6-F6</v>
+        <v>E6</v>
       </c>
       <c r="Y26" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="Z26" s="1" t="str">
-        <f t="shared" si="10"/>
-        <v>E4-F4</v>
+        <f t="shared" si="9"/>
+        <v>E4</v>
       </c>
       <c r="AA26" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="AB26" s="1" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AE26" s="1">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="AF26" s="8" t="s">
-        <v>75</v>
+        <f>COUNTIF($C$2:$R$28,AD26)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.3">
@@ -3354,7 +3357,7 @@
       </c>
       <c r="V27" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W27" s="1" t="str">
         <f t="shared" si="2"/>
@@ -3362,14 +3365,14 @@
       </c>
       <c r="X27" s="1" t="str">
         <f t="shared" si="3"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="Y27" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Z27" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>A3</v>
       </c>
       <c r="AA27" s="1" t="str">
@@ -3378,13 +3381,13 @@
       </c>
       <c r="AB27" s="1" t="str">
         <f t="shared" si="7"/>
-        <v>B2-C3</v>
+        <v>C3</v>
       </c>
       <c r="AD27" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AE27" s="1">
-        <f t="shared" si="9"/>
+        <f>COUNTIF($C$2:$R$28,AD27)</f>
         <v>0</v>
       </c>
     </row>
@@ -3442,15 +3445,15 @@
       </c>
       <c r="U28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>B4-C5</v>
+        <v>C5</v>
       </c>
       <c r="V28" s="1" t="str">
         <f t="shared" si="1"/>
-        <v>E5-F5</v>
+        <v>E5</v>
       </c>
       <c r="W28" s="1" t="str">
         <f t="shared" si="2"/>
-        <v>E3-F3</v>
+        <v>E3</v>
       </c>
       <c r="X28" s="1" t="str">
         <f t="shared" si="3"/>
@@ -3458,15 +3461,15 @@
       </c>
       <c r="Y28" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>B5-C6</v>
+        <v>C6</v>
       </c>
       <c r="Z28" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="9"/>
         <v>G5</v>
       </c>
       <c r="AA28" s="1" t="str">
         <f t="shared" si="6"/>
-        <v>B3-C4</v>
+        <v>C4</v>
       </c>
       <c r="AB28" s="1" t="str">
         <f t="shared" si="7"/>
@@ -3481,6 +3484,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="AD2:AF27">
+    <sortCondition descending="1" ref="AE2:AE27"/>
+  </sortState>
   <mergeCells count="3">
     <mergeCell ref="B1:S1"/>
     <mergeCell ref="AD1:AE1"/>
@@ -3525,161 +3531,251 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18F9BCCD-9CCC-4A97-95DF-1EFDFDB4112F}">
-  <dimension ref="C3:D31"/>
+  <dimension ref="C2:I24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="20" width="3.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C3" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C9" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C10" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C11" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C4" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C5" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+      <c r="D14" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
+        <v>100</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G17" t="s">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C7" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C8" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C11" s="6" t="s">
+      <c r="D18" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C12" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C13" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C14" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C15" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="6" t="s">
+      <c r="G18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C21" s="6" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C22" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C24" t="s">
+      <c r="H22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="13" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C25" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C26" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C28" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C29" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C31" t="s">
-        <v>78</v>
-      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
